--- a/data/outputs/RSHP ARC Data Requirement.xlsx
+++ b/data/outputs/RSHP ARC Data Requirement.xlsx
@@ -631,7 +631,11 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q2" t="inlineStr">
         <is>
           <t>No</t>
@@ -690,7 +694,11 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q3" t="inlineStr">
         <is>
           <t>No</t>
@@ -1100,7 +1108,11 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q7" t="inlineStr">
         <is>
           <t>No</t>
@@ -1272,7 +1284,11 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q9" t="inlineStr">
         <is>
           <t>No</t>
@@ -2354,7 +2370,11 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q19" t="inlineStr">
         <is>
           <t>No</t>
@@ -2530,7 +2550,11 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q21" t="inlineStr">
         <is>
           <t>No</t>
@@ -2928,7 +2952,11 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q25" t="inlineStr">
         <is>
           <t>No</t>
@@ -4793,7 +4821,11 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q42" t="inlineStr">
         <is>
           <t>No</t>
@@ -8933,7 +8965,11 @@
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q80" t="inlineStr">
         <is>
           <t>No</t>
@@ -9787,7 +9823,11 @@
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q88" t="inlineStr">
         <is>
           <t>No</t>
@@ -9846,7 +9886,11 @@
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q89" t="inlineStr">
         <is>
           <t>No</t>
@@ -10022,7 +10066,11 @@
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q91" t="inlineStr">
         <is>
           <t>No</t>
@@ -10194,7 +10242,11 @@
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q93" t="inlineStr">
         <is>
           <t>No</t>
@@ -10368,7 +10420,11 @@
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q95" t="inlineStr">
         <is>
           <t>No</t>
@@ -10429,7 +10485,11 @@
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q96" t="inlineStr">
         <is>
           <t>No</t>
@@ -10601,7 +10661,11 @@
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q98" t="inlineStr">
         <is>
           <t>No</t>
@@ -10660,7 +10724,11 @@
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q99" t="inlineStr">
         <is>
           <t>No</t>
@@ -11549,7 +11617,11 @@
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q108" t="inlineStr">
         <is>
           <t>No</t>
@@ -13043,7 +13115,11 @@
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q122" t="inlineStr">
         <is>
           <t>No</t>
@@ -13332,7 +13408,11 @@
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q125" t="inlineStr">
         <is>
           <t>No</t>
@@ -13391,7 +13471,11 @@
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q126" t="inlineStr">
         <is>
           <t>No</t>
@@ -13680,7 +13764,11 @@
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q129" t="inlineStr">
         <is>
           <t>No</t>
@@ -13852,7 +13940,11 @@
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q131" t="inlineStr">
         <is>
           <t>No</t>
@@ -14028,7 +14120,11 @@
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q133" t="inlineStr">
         <is>
           <t>No</t>
@@ -14087,7 +14183,11 @@
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q134" t="inlineStr">
         <is>
           <t>No</t>
@@ -14146,7 +14246,11 @@
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q135" t="inlineStr">
         <is>
           <t>No</t>
@@ -14318,7 +14422,11 @@
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q137" t="inlineStr">
         <is>
           <t>No</t>
@@ -14377,7 +14485,11 @@
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q138" t="inlineStr">
         <is>
           <t>No</t>
@@ -15013,7 +15125,11 @@
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q144" t="inlineStr">
         <is>
           <t>No</t>
@@ -15189,7 +15305,11 @@
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q146" t="inlineStr">
         <is>
           <t>No</t>
@@ -15248,7 +15368,11 @@
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q147" t="inlineStr">
         <is>
           <t>No</t>
@@ -17101,7 +17225,11 @@
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q164" t="inlineStr">
         <is>
           <t>No</t>
@@ -17394,7 +17522,11 @@
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q167" t="inlineStr">
         <is>
           <t>No</t>
@@ -17570,7 +17702,11 @@
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q169" t="inlineStr">
         <is>
           <t>No</t>
@@ -17629,7 +17765,11 @@
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q170" t="inlineStr">
         <is>
           <t>No</t>
@@ -17803,7 +17943,11 @@
       <c r="M172" t="inlineStr"/>
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q172" t="inlineStr">
         <is>
           <t>No</t>
@@ -18092,7 +18236,11 @@
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q175" t="inlineStr">
         <is>
           <t>No</t>
@@ -18151,7 +18299,11 @@
       <c r="M176" t="inlineStr"/>
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q176" t="inlineStr">
         <is>
           <t>No</t>
@@ -18444,7 +18596,11 @@
       <c r="M179" t="inlineStr"/>
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q179" t="inlineStr">
         <is>
           <t>No</t>
@@ -18955,7 +19111,11 @@
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q184" t="inlineStr">
         <is>
           <t>No</t>
@@ -19014,7 +19174,11 @@
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q185" t="inlineStr">
         <is>
           <t>No</t>
@@ -19186,7 +19350,11 @@
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q187" t="inlineStr">
         <is>
           <t>No</t>
@@ -19245,7 +19413,11 @@
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q188" t="inlineStr">
         <is>
           <t>No</t>
@@ -19421,7 +19593,11 @@
       <c r="M190" t="inlineStr"/>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q190" t="inlineStr">
         <is>
           <t>No</t>
@@ -19480,7 +19656,11 @@
       <c r="M191" t="inlineStr"/>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q191" t="inlineStr">
         <is>
           <t>No</t>
@@ -20005,7 +20185,11 @@
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q196" t="inlineStr">
         <is>
           <t>No</t>
@@ -20183,7 +20367,11 @@
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q198" t="inlineStr">
         <is>
           <t>No</t>
@@ -20359,7 +20547,11 @@
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q200" t="inlineStr">
         <is>
           <t>No</t>
@@ -20995,7 +21187,11 @@
       <c r="M206" t="inlineStr"/>
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q206" t="inlineStr">
         <is>
           <t>No</t>
@@ -21288,7 +21484,11 @@
       <c r="M209" t="inlineStr"/>
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q209" t="inlineStr">
         <is>
           <t>No</t>
@@ -21815,7 +22015,11 @@
       <c r="M214" t="inlineStr"/>
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr"/>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q214" t="inlineStr">
         <is>
           <t>No</t>
@@ -21874,7 +22078,11 @@
       <c r="M215" t="inlineStr"/>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr"/>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q215" t="inlineStr">
         <is>
           <t>No</t>
